--- a/panic_minus.xlsx
+++ b/panic_minus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\stocks-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B92380-2F2D-4AFA-ACCD-DC20B7BA344B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E06F392-AC5B-49FD-AD3D-3D216EB78376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,1434 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>panic_minus</t>
+  </si>
+  <si>
+    <t>2016-01-04</t>
+  </si>
+  <si>
+    <t>2016-01-11</t>
+  </si>
+  <si>
+    <t>2016-01-18</t>
+  </si>
+  <si>
+    <t>2016-01-25</t>
+  </si>
+  <si>
+    <t>2016-02-01</t>
+  </si>
+  <si>
+    <t>2016-02-08</t>
+  </si>
+  <si>
+    <t>2016-02-15</t>
+  </si>
+  <si>
+    <t>2016-02-22</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2016-03-07</t>
+  </si>
+  <si>
+    <t>2016-03-14</t>
+  </si>
+  <si>
+    <t>2016-03-21</t>
+  </si>
+  <si>
+    <t>2016-03-28</t>
+  </si>
+  <si>
+    <t>2016-04-04</t>
+  </si>
+  <si>
+    <t>2016-04-11</t>
+  </si>
+  <si>
+    <t>2016-04-18</t>
+  </si>
+  <si>
+    <t>2016-04-25</t>
+  </si>
+  <si>
+    <t>2016-05-02</t>
+  </si>
+  <si>
+    <t>2016-05-09</t>
+  </si>
+  <si>
+    <t>2016-05-16</t>
+  </si>
+  <si>
+    <t>2016-05-23</t>
+  </si>
+  <si>
+    <t>2016-05-30</t>
+  </si>
+  <si>
+    <t>2016-06-06</t>
+  </si>
+  <si>
+    <t>2016-06-13</t>
+  </si>
+  <si>
+    <t>2016-06-20</t>
+  </si>
+  <si>
+    <t>2016-06-27</t>
+  </si>
+  <si>
+    <t>2016-07-04</t>
+  </si>
+  <si>
+    <t>2016-07-11</t>
+  </si>
+  <si>
+    <t>2016-07-18</t>
+  </si>
+  <si>
+    <t>2016-07-25</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
+    <t>2016-08-08</t>
+  </si>
+  <si>
+    <t>2016-08-15</t>
+  </si>
+  <si>
+    <t>2016-08-22</t>
+  </si>
+  <si>
+    <t>2016-08-29</t>
+  </si>
+  <si>
+    <t>2016-09-05</t>
+  </si>
+  <si>
+    <t>2016-09-12</t>
+  </si>
+  <si>
+    <t>2016-09-19</t>
+  </si>
+  <si>
+    <t>2016-09-26</t>
+  </si>
+  <si>
+    <t>2016-10-03</t>
+  </si>
+  <si>
+    <t>2016-10-10</t>
+  </si>
+  <si>
+    <t>2016-10-17</t>
+  </si>
+  <si>
+    <t>2016-10-24</t>
+  </si>
+  <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
+    <t>2016-11-07</t>
+  </si>
+  <si>
+    <t>2016-11-14</t>
+  </si>
+  <si>
+    <t>2016-11-21</t>
+  </si>
+  <si>
+    <t>2016-11-28</t>
+  </si>
+  <si>
+    <t>2016-12-05</t>
+  </si>
+  <si>
+    <t>2016-12-12</t>
+  </si>
+  <si>
+    <t>2016-12-19</t>
+  </si>
+  <si>
+    <t>2016-12-26</t>
+  </si>
+  <si>
+    <t>2017-01-02</t>
+  </si>
+  <si>
+    <t>2017-01-09</t>
+  </si>
+  <si>
+    <t>2017-01-16</t>
+  </si>
+  <si>
+    <t>2017-01-23</t>
+  </si>
+  <si>
+    <t>2017-01-30</t>
+  </si>
+  <si>
+    <t>2017-02-06</t>
+  </si>
+  <si>
+    <t>2017-02-13</t>
+  </si>
+  <si>
+    <t>2017-02-20</t>
+  </si>
+  <si>
+    <t>2017-02-27</t>
+  </si>
+  <si>
+    <t>2017-03-06</t>
+  </si>
+  <si>
+    <t>2017-03-13</t>
+  </si>
+  <si>
+    <t>2017-03-20</t>
+  </si>
+  <si>
+    <t>2017-03-27</t>
+  </si>
+  <si>
+    <t>2017-04-03</t>
+  </si>
+  <si>
+    <t>2017-04-10</t>
+  </si>
+  <si>
+    <t>2017-04-17</t>
+  </si>
+  <si>
+    <t>2017-04-24</t>
+  </si>
+  <si>
+    <t>2017-05-01</t>
+  </si>
+  <si>
+    <t>2017-05-08</t>
+  </si>
+  <si>
+    <t>2017-05-15</t>
+  </si>
+  <si>
+    <t>2017-05-22</t>
+  </si>
+  <si>
+    <t>2017-05-29</t>
+  </si>
+  <si>
+    <t>2017-06-05</t>
+  </si>
+  <si>
+    <t>2017-06-12</t>
+  </si>
+  <si>
+    <t>2017-06-19</t>
+  </si>
+  <si>
+    <t>2017-06-26</t>
+  </si>
+  <si>
+    <t>2017-07-03</t>
+  </si>
+  <si>
+    <t>2017-07-10</t>
+  </si>
+  <si>
+    <t>2017-07-17</t>
+  </si>
+  <si>
+    <t>2017-07-24</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2017-08-07</t>
+  </si>
+  <si>
+    <t>2017-08-14</t>
+  </si>
+  <si>
+    <t>2017-08-21</t>
+  </si>
+  <si>
+    <t>2017-08-28</t>
+  </si>
+  <si>
+    <t>2017-09-04</t>
+  </si>
+  <si>
+    <t>2017-09-11</t>
+  </si>
+  <si>
+    <t>2017-09-18</t>
+  </si>
+  <si>
+    <t>2017-09-25</t>
+  </si>
+  <si>
+    <t>2017-10-02</t>
+  </si>
+  <si>
+    <t>2017-10-09</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>2017-10-23</t>
+  </si>
+  <si>
+    <t>2017-10-30</t>
+  </si>
+  <si>
+    <t>2017-11-06</t>
+  </si>
+  <si>
+    <t>2017-11-13</t>
+  </si>
+  <si>
+    <t>2017-11-20</t>
+  </si>
+  <si>
+    <t>2017-11-27</t>
+  </si>
+  <si>
+    <t>2017-12-04</t>
+  </si>
+  <si>
+    <t>2017-12-11</t>
+  </si>
+  <si>
+    <t>2017-12-18</t>
+  </si>
+  <si>
+    <t>2017-12-25</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2018-01-08</t>
+  </si>
+  <si>
+    <t>2018-01-15</t>
+  </si>
+  <si>
+    <t>2018-01-22</t>
+  </si>
+  <si>
+    <t>2018-01-29</t>
+  </si>
+  <si>
+    <t>2018-02-05</t>
+  </si>
+  <si>
+    <t>2018-02-12</t>
+  </si>
+  <si>
+    <t>2018-02-19</t>
+  </si>
+  <si>
+    <t>2018-02-26</t>
+  </si>
+  <si>
+    <t>2018-03-05</t>
+  </si>
+  <si>
+    <t>2018-03-12</t>
+  </si>
+  <si>
+    <t>2018-03-19</t>
+  </si>
+  <si>
+    <t>2018-03-26</t>
+  </si>
+  <si>
+    <t>2018-04-02</t>
+  </si>
+  <si>
+    <t>2018-04-09</t>
+  </si>
+  <si>
+    <t>2018-04-16</t>
+  </si>
+  <si>
+    <t>2018-04-23</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>2018-05-07</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
+  </si>
+  <si>
+    <t>2018-05-21</t>
+  </si>
+  <si>
+    <t>2018-05-28</t>
+  </si>
+  <si>
+    <t>2018-06-04</t>
+  </si>
+  <si>
+    <t>2018-06-11</t>
+  </si>
+  <si>
+    <t>2018-06-18</t>
+  </si>
+  <si>
+    <t>2018-06-25</t>
+  </si>
+  <si>
+    <t>2018-07-02</t>
+  </si>
+  <si>
+    <t>2018-07-09</t>
+  </si>
+  <si>
+    <t>2018-07-16</t>
+  </si>
+  <si>
+    <t>2018-07-23</t>
+  </si>
+  <si>
+    <t>2018-07-30</t>
+  </si>
+  <si>
+    <t>2018-08-06</t>
+  </si>
+  <si>
+    <t>2018-08-13</t>
+  </si>
+  <si>
+    <t>2018-08-20</t>
+  </si>
+  <si>
+    <t>2018-08-27</t>
+  </si>
+  <si>
+    <t>2018-09-03</t>
+  </si>
+  <si>
+    <t>2018-09-10</t>
+  </si>
+  <si>
+    <t>2018-09-17</t>
+  </si>
+  <si>
+    <t>2018-09-24</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>2018-10-08</t>
+  </si>
+  <si>
+    <t>2018-10-15</t>
+  </si>
+  <si>
+    <t>2018-10-22</t>
+  </si>
+  <si>
+    <t>2018-10-29</t>
+  </si>
+  <si>
+    <t>2018-11-05</t>
+  </si>
+  <si>
+    <t>2018-11-12</t>
+  </si>
+  <si>
+    <t>2018-11-19</t>
+  </si>
+  <si>
+    <t>2018-11-26</t>
+  </si>
+  <si>
+    <t>2018-12-03</t>
+  </si>
+  <si>
+    <t>2018-12-10</t>
+  </si>
+  <si>
+    <t>2018-12-17</t>
+  </si>
+  <si>
+    <t>2018-12-24</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2019-01-07</t>
+  </si>
+  <si>
+    <t>2019-01-14</t>
+  </si>
+  <si>
+    <t>2019-01-21</t>
+  </si>
+  <si>
+    <t>2019-01-28</t>
+  </si>
+  <si>
+    <t>2019-02-04</t>
+  </si>
+  <si>
+    <t>2019-02-11</t>
+  </si>
+  <si>
+    <t>2019-02-18</t>
+  </si>
+  <si>
+    <t>2019-02-25</t>
+  </si>
+  <si>
+    <t>2019-03-04</t>
+  </si>
+  <si>
+    <t>2019-03-11</t>
+  </si>
+  <si>
+    <t>2019-03-18</t>
+  </si>
+  <si>
+    <t>2019-03-25</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>2019-04-08</t>
+  </si>
+  <si>
+    <t>2019-04-15</t>
+  </si>
+  <si>
+    <t>2019-04-22</t>
+  </si>
+  <si>
+    <t>2019-04-29</t>
+  </si>
+  <si>
+    <t>2019-05-06</t>
+  </si>
+  <si>
+    <t>2019-05-13</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>2019-05-27</t>
+  </si>
+  <si>
+    <t>2019-06-03</t>
+  </si>
+  <si>
+    <t>2019-06-10</t>
+  </si>
+  <si>
+    <t>2019-06-17</t>
+  </si>
+  <si>
+    <t>2019-06-24</t>
+  </si>
+  <si>
+    <t>2019-07-01</t>
+  </si>
+  <si>
+    <t>2019-07-08</t>
+  </si>
+  <si>
+    <t>2019-07-15</t>
+  </si>
+  <si>
+    <t>2019-07-22</t>
+  </si>
+  <si>
+    <t>2019-07-29</t>
+  </si>
+  <si>
+    <t>2019-08-05</t>
+  </si>
+  <si>
+    <t>2019-08-12</t>
+  </si>
+  <si>
+    <t>2019-08-19</t>
+  </si>
+  <si>
+    <t>2019-08-26</t>
+  </si>
+  <si>
+    <t>2019-09-02</t>
+  </si>
+  <si>
+    <t>2019-09-09</t>
+  </si>
+  <si>
+    <t>2019-09-16</t>
+  </si>
+  <si>
+    <t>2019-09-23</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-10-07</t>
+  </si>
+  <si>
+    <t>2019-10-14</t>
+  </si>
+  <si>
+    <t>2019-10-21</t>
+  </si>
+  <si>
+    <t>2019-10-28</t>
+  </si>
+  <si>
+    <t>2019-11-04</t>
+  </si>
+  <si>
+    <t>2019-11-11</t>
+  </si>
+  <si>
+    <t>2019-11-18</t>
+  </si>
+  <si>
+    <t>2019-11-25</t>
+  </si>
+  <si>
+    <t>2019-12-02</t>
+  </si>
+  <si>
+    <t>2019-12-09</t>
+  </si>
+  <si>
+    <t>2019-12-16</t>
+  </si>
+  <si>
+    <t>2019-12-23</t>
+  </si>
+  <si>
+    <t>2019-12-30</t>
+  </si>
+  <si>
+    <t>2020-01-06</t>
+  </si>
+  <si>
+    <t>2020-01-13</t>
+  </si>
+  <si>
+    <t>2020-01-20</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>2020-04-06</t>
+  </si>
+  <si>
+    <t>2020-04-13</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-03-08</t>
+  </si>
+  <si>
+    <t>2021-03-15</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>2021-07-26</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-16</t>
+  </si>
+  <si>
+    <t>2021-08-23</t>
+  </si>
+  <si>
+    <t>2021-08-30</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>2021-09-13</t>
+  </si>
+  <si>
+    <t>2021-09-20</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>2021-10-11</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-11-08</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>2021-11-22</t>
+  </si>
+  <si>
+    <t>2021-11-29</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-01-17</t>
+  </si>
+  <si>
+    <t>2022-01-24</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2022-02-07</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-03-14</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>2022-07-11</t>
+  </si>
+  <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
+    <t>2022-07-25</t>
+  </si>
+  <si>
+    <t>2022-08-01</t>
+  </si>
+  <si>
+    <t>2022-08-08</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>2022-08-29</t>
+  </si>
+  <si>
+    <t>2022-09-05</t>
+  </si>
+  <si>
+    <t>2022-09-12</t>
+  </si>
+  <si>
+    <t>2022-09-19</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-10-10</t>
+  </si>
+  <si>
+    <t>2022-10-17</t>
+  </si>
+  <si>
+    <t>2022-10-24</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>2022-11-07</t>
+  </si>
+  <si>
+    <t>2022-11-14</t>
+  </si>
+  <si>
+    <t>2022-11-21</t>
+  </si>
+  <si>
+    <t>2022-11-28</t>
+  </si>
+  <si>
+    <t>2022-12-05</t>
+  </si>
+  <si>
+    <t>2022-12-12</t>
+  </si>
+  <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
+    <t>2023-03-20</t>
+  </si>
+  <si>
+    <t>2023-03-27</t>
+  </si>
+  <si>
+    <t>2023-04-03</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>2023-04-17</t>
+  </si>
+  <si>
+    <t>2023-04-24</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>2023-05-08</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-09-11</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-10-02</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>2023-12-25</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2024-01-08</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>2024-01-22</t>
+  </si>
+  <si>
+    <t>2024-01-29</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
+  </si>
+  <si>
+    <t>2024-02-19</t>
+  </si>
+  <si>
+    <t>2024-02-26</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>2024-05-06</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2024-07-08</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>2024-07-29</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>2024-11-11</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
   </si>
 </sst>
 </file>
@@ -56,18 +1478,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,11 +1498,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -395,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:A523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,2331 +1821,3803 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42373</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>-61.361040009170161</v>
+        <v>-71.780689042476439</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42380</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>-73.84263760595644</v>
+        <v>-65.696079554143211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42387</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>-91.581362772053737</v>
+        <v>-68.930492616861244</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42394</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>-53.6743689117515</v>
+        <v>-88.228530384323108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42401</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>-36.841555476077943</v>
+        <v>-97.866304535032867</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42408</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>-55.005941515744198</v>
+        <v>-116.67286516232269</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42415</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>-280.09123839670741</v>
+        <v>-132.2476895435735</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42422</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>-220.94593305936371</v>
+        <v>-263.51521484945522</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42429</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>-212.9207973804177</v>
+        <v>-265.61354997017219</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>42436</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>-204.60395388205561</v>
+        <v>-222.04496796863339</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42443</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>-178.43061182770549</v>
+        <v>-218.82372446203919</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>42450</v>
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>-173.8984944174228</v>
+        <v>-230.26905259867351</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42457</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>-277.47723576142312</v>
+        <v>-216.0770740665412</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>42464</v>
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>-281.10184735457648</v>
+        <v>-232.91543242071219</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42471</v>
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>-337.69575530780429</v>
+        <v>-241.39166923155091</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>42478</v>
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>-369.26725104627798</v>
+        <v>-224.37992354739171</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>42485</v>
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>-362.29698052822681</v>
+        <v>-330.11285864172828</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>42492</v>
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>-285.3278376388177</v>
+        <v>-248.86885742489639</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42499</v>
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>-249.6153164698012</v>
+        <v>-238.2544853272706</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>42506</v>
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>-231.1969334991179</v>
+        <v>-247.5286593954082</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>42513</v>
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>-229.50875632362329</v>
+        <v>-240.08105240706351</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>42520</v>
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>-260.50522982976219</v>
+        <v>-233.96624961673541</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>42527</v>
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>-303.84678022596648</v>
+        <v>-225.89816175293569</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>42534</v>
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>-310.21964636646078</v>
+        <v>-244.11936838827069</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>42541</v>
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>-311.17650757458961</v>
+        <v>-301.56847504460831</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>42548</v>
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>-332.62264401690118</v>
+        <v>-294.08584675057261</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>42555</v>
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>-328.34177804900401</v>
+        <v>-295.84788783812928</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>42562</v>
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>-318.44041552493451</v>
+        <v>-269.52764357190131</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>42569</v>
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>-320.8043698705622</v>
+        <v>-282.70153855048221</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>42576</v>
-      </c>
-      <c r="B31" s="3">
-        <v>-348.82587670488567</v>
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>-289.94967082603131</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>42583</v>
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>-331.55979641173769</v>
+        <v>-288.29914287416119</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>42590</v>
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>-331.74666668268941</v>
+        <v>-248.37856261702009</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>42597</v>
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>-308.05332302684621</v>
+        <v>-260.10768897380723</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>42604</v>
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>-337.73387905480882</v>
+        <v>-233.8851543120872</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>42611</v>
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>-372.04869090218489</v>
+        <v>-247.56863398095689</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>42618</v>
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>-374.00877179870258</v>
+        <v>-241.03397978065291</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>42625</v>
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>-387.68268717708582</v>
+        <v>-221.14793006641301</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>42632</v>
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>-390.9051903432661</v>
+        <v>-257.55397954325429</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>42639</v>
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>-395.53315824245061</v>
+        <v>-308.1852498520617</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>42646</v>
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>-366.66980295950702</v>
+        <v>-300.45458171847503</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>42653</v>
+      <c r="A42" t="s">
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>-300.67610703352551</v>
+        <v>-295.73789226642629</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42660</v>
+      <c r="A43" t="s">
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>-259.53556325753658</v>
+        <v>-297.25748463028839</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42667</v>
+      <c r="A44" t="s">
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>-253.06775882585299</v>
+        <v>-313.7068746052077</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>42674</v>
+      <c r="A45" t="s">
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>-276.39220372981339</v>
+        <v>-318.49295049940548</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>42681</v>
+      <c r="A46" t="s">
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>-340.29975970634388</v>
+        <v>-321.24980788937683</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>42688</v>
+      <c r="A47" t="s">
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>-316.13983087702837</v>
+        <v>-322.64171635829462</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>42695</v>
+      <c r="A48" t="s">
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>-227.83119196595689</v>
+        <v>-321.64905204400958</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>42702</v>
+      <c r="A49" t="s">
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>-92.426423474194777</v>
+        <v>-325.59390356111658</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>42709</v>
+      <c r="A50" t="s">
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>-86.884138362549564</v>
+        <v>-335.7302200903892</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>42716</v>
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>-114.92095934321161</v>
+        <v>-328.96198760612521</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>42723</v>
+      <c r="A52" t="s">
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>-202.41477953323829</v>
+        <v>-295.92693356237231</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>42730</v>
+      <c r="A53" t="s">
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>-181.40211696018531</v>
+        <v>-237.7739575351176</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>42370</v>
+      <c r="A54" t="s">
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>-71.208658283099297</v>
+        <v>-115.5640038217775</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>42737</v>
+      <c r="A55" t="s">
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>-92.120759828137324</v>
+        <v>-121.18921164414689</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>42744</v>
+      <c r="A56" t="s">
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>-94.708486467663192</v>
+        <v>-132.23104878513359</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>42751</v>
+      <c r="A57" t="s">
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>-68.209550645579341</v>
+        <v>-130.1472710017577</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>42758</v>
+      <c r="A58" t="s">
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>-63.256124724101277</v>
+        <v>-141.97709647227981</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>42765</v>
+      <c r="A59" t="s">
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>-77.534625840414364</v>
+        <v>-167.30717043665081</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>42772</v>
+      <c r="A60" t="s">
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>-274.92875650450787</v>
+        <v>-144.13929461951631</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>42779</v>
+      <c r="A61" t="s">
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>-202.50212904419459</v>
+        <v>-293.70893059193691</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>42786</v>
+      <c r="A62" t="s">
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>-202.19982940585629</v>
+        <v>-284.21160130642397</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>42793</v>
+      <c r="A63" t="s">
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>-203.03457077424471</v>
+        <v>-278.46345216487742</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>42800</v>
+      <c r="A64" t="s">
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>-178.77414243992359</v>
+        <v>-297.22718752970621</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>42807</v>
+      <c r="A65" t="s">
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>-160.2411367615482</v>
+        <v>-315.50664566211969</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>42814</v>
+      <c r="A66" t="s">
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>-145.61387125777929</v>
+        <v>-301.58348187506732</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>42821</v>
+      <c r="A67" t="s">
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>-278.8054015412489</v>
+        <v>-295.8156876397465</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>42828</v>
+      <c r="A68" t="s">
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>-266.14752934379612</v>
+        <v>-279.57772462427027</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>42835</v>
+      <c r="A69" t="s">
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>-370.85965682133809</v>
+        <v>-304.01270018371611</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>42842</v>
+      <c r="A70" t="s">
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>-383.50617568213721</v>
+        <v>-305.36193968828871</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>42849</v>
+      <c r="A71" t="s">
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>-375.00201049559553</v>
+        <v>-298.45396089477958</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>42856</v>
+      <c r="A72" t="s">
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>-327.2795515823679</v>
+        <v>-289.28642364061909</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>42863</v>
+      <c r="A73" t="s">
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>-294.9784064367758</v>
+        <v>-270.60839600074752</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>42870</v>
+      <c r="A74" t="s">
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>-273.97449069122678</v>
+        <v>-240.39050484203889</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>42877</v>
+      <c r="A75" t="s">
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>-285.01651879156827</v>
+        <v>-248.4535121830267</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>42884</v>
+      <c r="A76" t="s">
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>-272.16957424517409</v>
+        <v>-237.6260474695174</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>42891</v>
+      <c r="A77" t="s">
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>-268.63025887671557</v>
+        <v>-224.7205016636176</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>42898</v>
+      <c r="A78" t="s">
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>-338.60185477629688</v>
+        <v>-215.13356419471299</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>42905</v>
+      <c r="A79" t="s">
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>-331.52556736762142</v>
+        <v>-265.5510663268941</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>42912</v>
+      <c r="A80" t="s">
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>-337.04078216479928</v>
+        <v>-266.76948030894607</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>42919</v>
+      <c r="A81" t="s">
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>-326.26591210561031</v>
+        <v>-325.04747152579131</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>42926</v>
+      <c r="A82" t="s">
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>-335.30670685120361</v>
+        <v>-326.96193752215862</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>42933</v>
+      <c r="A83" t="s">
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>-382.7282793244583</v>
+        <v>-317.95828205368872</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>42940</v>
+      <c r="A84" t="s">
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>-410.38759995646319</v>
+        <v>-308.83369101823268</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>42947</v>
+      <c r="A85" t="s">
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>-413.230497359656</v>
+        <v>-300.4053213839785</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>42954</v>
+      <c r="A86" t="s">
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>-354.59645437976337</v>
+        <v>-302.41757318037429</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>42961</v>
+      <c r="A87" t="s">
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>-350.93612730639381</v>
+        <v>-318.0689413021193</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>42968</v>
+      <c r="A88" t="s">
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>-366.46539284747439</v>
+        <v>-308.68828231590032</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>42975</v>
+      <c r="A89" t="s">
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>-398.06128578963211</v>
+        <v>-319.43329608648628</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>42982</v>
+      <c r="A90" t="s">
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>-425.22991973666382</v>
+        <v>-296.91149405044189</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>42989</v>
+      <c r="A91" t="s">
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>-416.26206984598878</v>
+        <v>-299.47616729384742</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>42996</v>
+      <c r="A92" t="s">
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>-394.32320647459852</v>
+        <v>-305.96044646357763</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>43003</v>
+      <c r="A93" t="s">
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>-397.84180193151371</v>
+        <v>-304.16750234755227</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>43010</v>
+      <c r="A94" t="s">
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>-390.71097539774712</v>
+        <v>-319.26310655097939</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>43017</v>
+      <c r="A95" t="s">
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>-398.94066957318989</v>
+        <v>-332.26789043556289</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>43024</v>
+      <c r="A96" t="s">
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>-420.49183225226909</v>
+        <v>-335.86967696021338</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>43031</v>
+      <c r="A97" t="s">
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>-391.89509860760592</v>
+        <v>-345.72185097838297</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>43038</v>
+      <c r="A98" t="s">
+        <v>98</v>
       </c>
       <c r="B98">
-        <v>-331.51897355656013</v>
+        <v>-322.72939958054582</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>43045</v>
+      <c r="A99" t="s">
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>-308.46339031201671</v>
+        <v>-322.38206604985209</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>43052</v>
+      <c r="A100" t="s">
+        <v>100</v>
       </c>
       <c r="B100">
-        <v>-310.61508916967369</v>
+        <v>-314.80613094895682</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>43059</v>
+      <c r="A101" t="s">
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>-332.66288990962698</v>
+        <v>-309.08844792128832</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>43066</v>
+      <c r="A102" t="s">
+        <v>102</v>
       </c>
       <c r="B102">
-        <v>-309.24551442476348</v>
+        <v>-319.05204993381341</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>43073</v>
+      <c r="A103" t="s">
+        <v>103</v>
       </c>
       <c r="B103">
-        <v>-307.84256149570638</v>
+        <v>-333.28655704075322</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>43080</v>
+      <c r="A104" t="s">
+        <v>104</v>
       </c>
       <c r="B104">
-        <v>-372.4657522474343</v>
+        <v>-304.4804847434408</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>43087</v>
+      <c r="A105" t="s">
+        <v>105</v>
       </c>
       <c r="B105">
-        <v>-356.2225011284558</v>
+        <v>-288.11034994164919</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>43094</v>
+      <c r="A106" t="s">
+        <v>106</v>
       </c>
       <c r="B106">
-        <v>-66.220637100757941</v>
+        <v>-96.057977098407434</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>43101</v>
+      <c r="A107" t="s">
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>-87.063964667427896</v>
+        <v>-102.4713421893582</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>43108</v>
+      <c r="A108" t="s">
+        <v>108</v>
       </c>
       <c r="B108">
-        <v>-77.631228348129326</v>
+        <v>-97.648675083700866</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>43115</v>
+      <c r="A109" t="s">
+        <v>109</v>
       </c>
       <c r="B109">
-        <v>-81.258189263666978</v>
+        <v>-105.7866353566374</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>43122</v>
+      <c r="A110" t="s">
+        <v>110</v>
       </c>
       <c r="B110">
-        <v>-91.369591987700929</v>
+        <v>-125.7265526183913</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>43129</v>
+      <c r="A111" t="s">
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>-111.0376352542452</v>
+        <v>-133.49282361051041</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>43136</v>
+      <c r="A112" t="s">
+        <v>112</v>
       </c>
       <c r="B112">
-        <v>-357.54728868383069</v>
+        <v>-138.58520517477459</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>43143</v>
+      <c r="A113" t="s">
+        <v>113</v>
       </c>
       <c r="B113">
-        <v>-330.91852778663798</v>
+        <v>-350.8114611045736</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>43150</v>
+      <c r="A114" t="s">
+        <v>114</v>
       </c>
       <c r="B114">
-        <v>-296.78768496137297</v>
+        <v>-334.33201545522081</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>43157</v>
+      <c r="A115" t="s">
+        <v>115</v>
       </c>
       <c r="B115">
-        <v>-177.67353008507891</v>
+        <v>-292.76003738184721</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>43164</v>
+      <c r="A116" t="s">
+        <v>116</v>
       </c>
       <c r="B116">
-        <v>-168.20398715718659</v>
+        <v>-283.60833915073277</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>43171</v>
+      <c r="A117" t="s">
+        <v>117</v>
       </c>
       <c r="B117">
-        <v>-154.80619855291849</v>
+        <v>-289.96954503534607</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>43178</v>
+      <c r="A118" t="s">
+        <v>118</v>
       </c>
       <c r="B118">
-        <v>-177.64959377784041</v>
+        <v>-287.23719095655781</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>43185</v>
+      <c r="A119" t="s">
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>-194.0123622983904</v>
+        <v>-300.13081791618748</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>43192</v>
+      <c r="A120" t="s">
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>-207.57196028830751</v>
+        <v>-277.03201469171017</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>43199</v>
+      <c r="A121" t="s">
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>-385.0617414752943</v>
+        <v>-267.63693236044548</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>43206</v>
+      <c r="A122" t="s">
+        <v>122</v>
       </c>
       <c r="B122">
-        <v>-354.38628745118939</v>
+        <v>-290.51868893297791</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>43213</v>
+      <c r="A123" t="s">
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>-145.5874074529757</v>
+        <v>-198.4632265453275</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>43220</v>
+      <c r="A124" t="s">
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>-144.71728094574431</v>
+        <v>-181.0999077946787</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>43227</v>
+      <c r="A125" t="s">
+        <v>125</v>
       </c>
       <c r="B125">
-        <v>-149.59789205299671</v>
+        <v>-182.33992603719409</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>43234</v>
+      <c r="A126" t="s">
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>-150.5404649843361</v>
+        <v>-181.84743181636659</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>43241</v>
+      <c r="A127" t="s">
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>-167.4296753746209</v>
+        <v>-200.06159898839101</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>43248</v>
+      <c r="A128" t="s">
+        <v>128</v>
       </c>
       <c r="B128">
-        <v>-157.261808796368</v>
+        <v>-197.55578291127719</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>43255</v>
+      <c r="A129" t="s">
+        <v>129</v>
       </c>
       <c r="B129">
-        <v>-112.0087503901463</v>
+        <v>-181.76410276347039</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>43262</v>
+      <c r="A130" t="s">
+        <v>130</v>
       </c>
       <c r="B130">
-        <v>-116.55813808677981</v>
+        <v>-216.66924621373079</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>43269</v>
+      <c r="A131" t="s">
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>-108.373644605659</v>
+        <v>-215.2745324658737</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>43276</v>
+      <c r="A132" t="s">
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>-126.65127584784329</v>
+        <v>-229.9268170048652</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>43283</v>
+      <c r="A133" t="s">
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>-108.2961328880005</v>
+        <v>-252.8100148158384</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>43290</v>
+      <c r="A134" t="s">
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>-168.2395043604466</v>
+        <v>-236.9259646913778</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>43297</v>
+      <c r="A135" t="s">
+        <v>135</v>
       </c>
       <c r="B135">
-        <v>-285.64290477695653</v>
+        <v>-296.43413986945279</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>43304</v>
+      <c r="A136" t="s">
+        <v>136</v>
       </c>
       <c r="B136">
-        <v>-289.72788645964181</v>
+        <v>-312.10646912257857</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>43311</v>
+      <c r="A137" t="s">
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>-317.70627451533659</v>
+        <v>-305.22226281692019</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>43318</v>
+      <c r="A138" t="s">
+        <v>138</v>
       </c>
       <c r="B138">
-        <v>-333.98919910717223</v>
+        <v>-309.2090471869559</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>43325</v>
+      <c r="A139" t="s">
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>-317.8129204135318</v>
+        <v>-301.3856399955435</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>43332</v>
+      <c r="A140" t="s">
+        <v>140</v>
       </c>
       <c r="B140">
-        <v>-316.09283384719009</v>
+        <v>-304.90803430727829</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>43339</v>
+      <c r="A141" t="s">
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>-386.55427827822137</v>
+        <v>-304.69269435774578</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>43346</v>
+      <c r="A142" t="s">
+        <v>142</v>
       </c>
       <c r="B142">
-        <v>-378.39285777858612</v>
+        <v>-315.54051584908382</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>43353</v>
+      <c r="A143" t="s">
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>-366.51721251610888</v>
+        <v>-315.31296606861292</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>43360</v>
+      <c r="A144" t="s">
+        <v>144</v>
       </c>
       <c r="B144">
-        <v>-376.73771324872217</v>
+        <v>-323.68356459852248</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>43367</v>
+      <c r="A145" t="s">
+        <v>145</v>
       </c>
       <c r="B145">
-        <v>-386.2309158439524</v>
+        <v>-324.57616752074921</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>43374</v>
+      <c r="A146" t="s">
+        <v>146</v>
       </c>
       <c r="B146">
-        <v>-399.7681048185745</v>
+        <v>-325.02345199554372</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>43381</v>
+      <c r="A147" t="s">
+        <v>147</v>
       </c>
       <c r="B147">
-        <v>-397.88459396562268</v>
+        <v>-332.8659049806883</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>43388</v>
+      <c r="A148" t="s">
+        <v>148</v>
       </c>
       <c r="B148">
-        <v>-374.42674340914732</v>
+        <v>-335.35890385232773</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>43395</v>
+      <c r="A149" t="s">
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>-366.17504226392401</v>
+        <v>-328.35761365404301</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>43402</v>
+      <c r="A150" t="s">
+        <v>150</v>
       </c>
       <c r="B150">
-        <v>-336.7431055250355</v>
+        <v>-290.5403023952976</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>43409</v>
+      <c r="A151" t="s">
+        <v>151</v>
       </c>
       <c r="B151">
-        <v>-352.27447465038352</v>
+        <v>-273.07169210680843</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>43416</v>
+      <c r="A152" t="s">
+        <v>152</v>
       </c>
       <c r="B152">
-        <v>-341.13955430287092</v>
+        <v>-279.76257649710612</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>43423</v>
+      <c r="A153" t="s">
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>-331.35631670100332</v>
+        <v>-286.16229554682968</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>43430</v>
+      <c r="A154" t="s">
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>-330.27675503236122</v>
+        <v>-283.62084626865948</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>43437</v>
+      <c r="A155" t="s">
+        <v>155</v>
       </c>
       <c r="B155">
-        <v>-330.28337123841533</v>
+        <v>-283.31434682662677</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>43444</v>
+      <c r="A156" t="s">
+        <v>156</v>
       </c>
       <c r="B156">
-        <v>-349.20068186538009</v>
+        <v>-293.72018046956703</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>43451</v>
+      <c r="A157" t="s">
+        <v>157</v>
       </c>
       <c r="B157">
-        <v>-352.75575070964362</v>
+        <v>-311.26174245985987</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>43458</v>
+      <c r="A158" t="s">
+        <v>158</v>
       </c>
       <c r="B158">
-        <v>-118.1845528948916</v>
+        <v>-166.20065518560631</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>43466</v>
+      <c r="A159" t="s">
+        <v>159</v>
       </c>
       <c r="B159">
-        <v>-144.78625870291299</v>
+        <v>-156.83887429061289</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>43472</v>
+      <c r="A160" t="s">
+        <v>160</v>
       </c>
       <c r="B160">
-        <v>-125.2051476004611</v>
+        <v>-153.58649487308551</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>43479</v>
+      <c r="A161" t="s">
+        <v>161</v>
       </c>
       <c r="B161">
-        <v>-98.33412739414598</v>
+        <v>-195.94103221190451</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>43486</v>
+      <c r="A162" t="s">
+        <v>162</v>
       </c>
       <c r="B162">
-        <v>-92.559338334819685</v>
+        <v>-202.85164368060879</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>43493</v>
+      <c r="A163" t="s">
+        <v>163</v>
       </c>
       <c r="B163">
-        <v>-71.846776355080252</v>
+        <v>-210.00845675569821</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>43500</v>
+      <c r="A164" t="s">
+        <v>164</v>
       </c>
       <c r="B164">
-        <v>-165.145141404112</v>
+        <v>-217.5368442553706</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>43507</v>
+      <c r="A165" t="s">
+        <v>165</v>
       </c>
       <c r="B165">
-        <v>-372.05909638672688</v>
+        <v>-275.16082077666738</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>43514</v>
+      <c r="A166" t="s">
+        <v>166</v>
       </c>
       <c r="B166">
-        <v>-384.19889858673969</v>
+        <v>-342.1160429996641</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>43521</v>
+      <c r="A167" t="s">
+        <v>167</v>
       </c>
       <c r="B167">
-        <v>-278.52860503586948</v>
+        <v>-340.7619411795751</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>43528</v>
+      <c r="A168" t="s">
+        <v>168</v>
       </c>
       <c r="B168">
-        <v>-287.81721241813523</v>
+        <v>-319.98411964192479</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>43535</v>
+      <c r="A169" t="s">
+        <v>169</v>
       </c>
       <c r="B169">
-        <v>-295.38724411020189</v>
+        <v>-298.28345256776339</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>43542</v>
+      <c r="A170" t="s">
+        <v>170</v>
       </c>
       <c r="B170">
-        <v>-309.86166194894491</v>
+        <v>-288.87343644521599</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>43549</v>
+      <c r="A171" t="s">
+        <v>171</v>
       </c>
       <c r="B171">
-        <v>-325.2581776848333</v>
+        <v>-290.81852764684038</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>43556</v>
+      <c r="A172" t="s">
+        <v>172</v>
       </c>
       <c r="B172">
-        <v>-334.80590713265468</v>
+        <v>-281.85362301764837</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>43563</v>
-      </c>
-      <c r="B173" s="3">
-        <v>-377.96481723781011</v>
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>-267.4521028300021</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>43570</v>
+      <c r="A174" t="s">
+        <v>174</v>
       </c>
       <c r="B174">
-        <v>-392.90064459837691</v>
+        <v>-293.21251958031729</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>43577</v>
+      <c r="A175" t="s">
+        <v>175</v>
       </c>
       <c r="B175">
-        <v>-293.47654241409441</v>
+        <v>-219.70213709704029</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>43584</v>
+      <c r="A176" t="s">
+        <v>176</v>
       </c>
       <c r="B176">
-        <v>-358.66011205532322</v>
+        <v>-196.1927436393963</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>43591</v>
+      <c r="A177" t="s">
+        <v>177</v>
       </c>
       <c r="B177">
-        <v>-318.08387273376962</v>
+        <v>-193.34276173640939</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>43598</v>
+      <c r="A178" t="s">
+        <v>178</v>
       </c>
       <c r="B178">
-        <v>-302.14047441050212</v>
+        <v>-172.13112734317161</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>43605</v>
+      <c r="A179" t="s">
+        <v>179</v>
       </c>
       <c r="B179">
-        <v>-267.06058859014388</v>
+        <v>-188.90351422592209</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>43612</v>
+      <c r="A180" t="s">
+        <v>180</v>
       </c>
       <c r="B180">
-        <v>-290.43495735981747</v>
+        <v>-199.09239423354549</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>43619</v>
+      <c r="A181" t="s">
+        <v>181</v>
       </c>
       <c r="B181">
-        <v>-332.91563969932622</v>
+        <v>-200.10800263258039</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>43626</v>
+      <c r="A182" t="s">
+        <v>182</v>
       </c>
       <c r="B182">
-        <v>-299.29961358252262</v>
+        <v>-222.1534023403438</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>43633</v>
+      <c r="A183" t="s">
+        <v>183</v>
       </c>
       <c r="B183">
-        <v>-295.20447132583718</v>
+        <v>-310.72470404308712</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>43640</v>
+      <c r="A184" t="s">
+        <v>184</v>
       </c>
       <c r="B184">
-        <v>-287.79425013868519</v>
+        <v>-297.26452769702558</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>43647</v>
+      <c r="A185" t="s">
+        <v>185</v>
       </c>
       <c r="B185">
-        <v>-284.90086417459099</v>
+        <v>-288.50172807289943</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>43654</v>
+      <c r="A186" t="s">
+        <v>186</v>
       </c>
       <c r="B186">
-        <v>-271.34815826054222</v>
+        <v>-292.50268079481242</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>43661</v>
+      <c r="A187" t="s">
+        <v>187</v>
       </c>
       <c r="B187">
-        <v>-335.90390310266542</v>
+        <v>-294.68512392675422</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>43668</v>
+      <c r="A188" t="s">
+        <v>188</v>
       </c>
       <c r="B188">
-        <v>-328.08508070362751</v>
+        <v>-299.47178701904869</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>43675</v>
+      <c r="A189" t="s">
+        <v>189</v>
       </c>
       <c r="B189">
-        <v>-315.84510788033828</v>
+        <v>-318.67485458089521</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>43682</v>
+      <c r="A190" t="s">
+        <v>190</v>
       </c>
       <c r="B190">
-        <v>-316.05220855406378</v>
+        <v>-326.36171737323463</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>43689</v>
+      <c r="A191" t="s">
+        <v>191</v>
       </c>
       <c r="B191">
-        <v>-342.68779970808561</v>
+        <v>-323.52475149357389</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>43696</v>
+      <c r="A192" t="s">
+        <v>192</v>
       </c>
       <c r="B192">
-        <v>-326.39439740760338</v>
+        <v>-323.29161923993922</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>43703</v>
+      <c r="A193" t="s">
+        <v>193</v>
       </c>
       <c r="B193">
-        <v>-339.77966952399788</v>
+        <v>-336.40619980251847</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>43710</v>
+      <c r="A194" t="s">
+        <v>194</v>
       </c>
       <c r="B194">
-        <v>-358.25341385093088</v>
+        <v>-351.38173798602332</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>43717</v>
+      <c r="A195" t="s">
+        <v>195</v>
       </c>
       <c r="B195">
-        <v>-383.22749550939631</v>
+        <v>-338.13837663021008</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>43724</v>
+      <c r="A196" t="s">
+        <v>196</v>
       </c>
       <c r="B196">
-        <v>-396.00216182790149</v>
+        <v>-335.75303566843291</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>43731</v>
+      <c r="A197" t="s">
+        <v>197</v>
       </c>
       <c r="B197">
-        <v>-377.95027985359542</v>
+        <v>-325.69735658272509</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>43738</v>
+      <c r="A198" t="s">
+        <v>198</v>
       </c>
       <c r="B198">
-        <v>-371.26901012723641</v>
+        <v>-309.86397675899133</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>43745</v>
+      <c r="A199" t="s">
+        <v>199</v>
       </c>
       <c r="B199">
-        <v>-368.10558670512802</v>
+        <v>-305.07485942076448</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>43752</v>
+      <c r="A200" t="s">
+        <v>200</v>
       </c>
       <c r="B200">
-        <v>-358.31615176544381</v>
+        <v>-302.59252096648078</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>43759</v>
+      <c r="A201" t="s">
+        <v>201</v>
       </c>
       <c r="B201">
-        <v>-370.73316508511567</v>
+        <v>-291.09142919205209</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>43766</v>
+      <c r="A202" t="s">
+        <v>202</v>
       </c>
       <c r="B202">
-        <v>-343.70580292490661</v>
+        <v>-306.99877731190708</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>43773</v>
+      <c r="A203" t="s">
+        <v>203</v>
       </c>
       <c r="B203">
-        <v>-334.52114109548762</v>
+        <v>-313.02460345016772</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>43780</v>
+      <c r="A204" t="s">
+        <v>204</v>
       </c>
       <c r="B204">
-        <v>-314.99594582809021</v>
+        <v>-314.35658652849281</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>43787</v>
+      <c r="A205" t="s">
+        <v>205</v>
       </c>
       <c r="B205">
-        <v>-309.19500754225209</v>
+        <v>-311.57433889171517</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>43794</v>
+      <c r="A206" t="s">
+        <v>206</v>
       </c>
       <c r="B206">
-        <v>-309.57548704020593</v>
+        <v>-308.31741798884059</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>43801</v>
+      <c r="A207" t="s">
+        <v>207</v>
       </c>
       <c r="B207">
-        <v>-302.00591112447017</v>
+        <v>-303.12439445470977</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>43808</v>
+      <c r="A208" t="s">
+        <v>208</v>
       </c>
       <c r="B208">
-        <v>-383.21007292077132</v>
+        <v>-306.16508029578267</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>43815</v>
+      <c r="A209" t="s">
+        <v>209</v>
       </c>
       <c r="B209">
-        <v>-397.96209898698709</v>
+        <v>-298.00348970094632</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>43822</v>
+      <c r="A210" t="s">
+        <v>210</v>
       </c>
       <c r="B210">
-        <v>-88.924022722054275</v>
+        <v>-136.43975095618359</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>43831</v>
+      <c r="A211" t="s">
+        <v>211</v>
       </c>
       <c r="B211">
-        <v>-89.18843338581506</v>
+        <v>-165.77747371056199</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>43836</v>
+      <c r="A212" t="s">
+        <v>212</v>
       </c>
       <c r="B212">
-        <v>-87.740696421545877</v>
+        <v>-134.4090169191843</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>43843</v>
+      <c r="A213" t="s">
+        <v>213</v>
       </c>
       <c r="B213">
-        <v>-77.754079941750447</v>
+        <v>-117.3078486828868</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>43850</v>
+      <c r="A214" t="s">
+        <v>214</v>
       </c>
       <c r="B214">
-        <v>-48.637322398786573</v>
+        <v>-110.8900520976986</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>43857</v>
+      <c r="A215" t="s">
+        <v>215</v>
       </c>
       <c r="B215">
-        <v>-50.229592079627821</v>
+        <v>-115.444723623355</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>43864</v>
+      <c r="A216" t="s">
+        <v>216</v>
       </c>
       <c r="B216">
-        <v>-194.76570339226379</v>
+        <v>-101.269461830314</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>43871</v>
+      <c r="A217" t="s">
+        <v>217</v>
       </c>
       <c r="B217">
-        <v>-374.28539131953602</v>
+        <v>-253.01287543262279</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>43878</v>
+      <c r="A218" t="s">
+        <v>218</v>
       </c>
       <c r="B218">
-        <v>-355.2526370128208</v>
+        <v>-285.85802305339797</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>43885</v>
+      <c r="A219" t="s">
+        <v>219</v>
       </c>
       <c r="B219">
-        <v>-355.00944278698353</v>
+        <v>-281.27098596834071</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>43892</v>
+      <c r="A220" t="s">
+        <v>220</v>
       </c>
       <c r="B220">
-        <v>-279.93563757454069</v>
+        <v>-292.81627669445419</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>43899</v>
+      <c r="A221" t="s">
+        <v>221</v>
       </c>
       <c r="B221">
-        <v>-294.50707893912943</v>
+        <v>-293.67674578455262</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>43906</v>
+      <c r="A222" t="s">
+        <v>222</v>
       </c>
       <c r="B222">
-        <v>-312.8068331265988</v>
+        <v>-287.59900007207563</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>43913</v>
+      <c r="A223" t="s">
+        <v>223</v>
       </c>
       <c r="B223">
-        <v>-339.4453975040646</v>
+        <v>-283.03270429641339</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>43920</v>
+      <c r="A224" t="s">
+        <v>224</v>
       </c>
       <c r="B224">
-        <v>-322.32763366320501</v>
+        <v>-274.45385246730598</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>43927</v>
+      <c r="A225" t="s">
+        <v>225</v>
       </c>
       <c r="B225">
-        <v>-377.33421010868238</v>
+        <v>-281.17800492996452</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>43934</v>
+      <c r="A226" t="s">
+        <v>226</v>
       </c>
       <c r="B226">
-        <v>-388.12465571470489</v>
+        <v>-285.70686918585079</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <v>43941</v>
+      <c r="A227" t="s">
+        <v>227</v>
       </c>
       <c r="B227">
-        <v>-376.79022814581703</v>
+        <v>-271.28434825810012</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>43948</v>
+      <c r="A228" t="s">
+        <v>228</v>
       </c>
       <c r="B228">
-        <v>-424.11307369224608</v>
+        <v>-237.6062665721154</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <v>43955</v>
+      <c r="A229" t="s">
+        <v>229</v>
       </c>
       <c r="B229">
-        <v>-408.08078423744462</v>
+        <v>-253.75971328732689</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>43962</v>
+      <c r="A230" t="s">
+        <v>230</v>
       </c>
       <c r="B230">
-        <v>-386.6983236873449</v>
+        <v>-251.10639043085871</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <v>43969</v>
+      <c r="A231" t="s">
+        <v>231</v>
       </c>
       <c r="B231">
-        <v>-398.06789208235062</v>
+        <v>-278.50822343270289</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>43976</v>
+      <c r="A232" t="s">
+        <v>232</v>
       </c>
       <c r="B232">
-        <v>-407.41688714669959</v>
+        <v>-288.92731966578191</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>43983</v>
+      <c r="A233" t="s">
+        <v>233</v>
       </c>
       <c r="B233">
-        <v>-392.35038704293942</v>
+        <v>-307.06050978122391</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>43990</v>
+      <c r="A234" t="s">
+        <v>234</v>
       </c>
       <c r="B234">
-        <v>-351.0682267838539</v>
+        <v>-297.92650641705018</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>43997</v>
+      <c r="A235" t="s">
+        <v>235</v>
       </c>
       <c r="B235">
-        <v>-359.58512687213198</v>
+        <v>-335.59208498045962</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>44004</v>
+      <c r="A236" t="s">
+        <v>236</v>
       </c>
       <c r="B236">
-        <v>-337.39381140425809</v>
+        <v>-332.15490238073471</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>44011</v>
+      <c r="A237" t="s">
+        <v>237</v>
       </c>
       <c r="B237">
-        <v>-316.16336401857973</v>
+        <v>-340.00022530998223</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>44018</v>
+      <c r="A238" t="s">
+        <v>238</v>
       </c>
       <c r="B238">
-        <v>-183.725012739357</v>
+        <v>-310.51875475143061</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>44025</v>
+      <c r="A239" t="s">
+        <v>239</v>
       </c>
       <c r="B239">
-        <v>-175.14512331755211</v>
+        <v>-319.60412875799778</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>44032</v>
+      <c r="A240" t="s">
+        <v>240</v>
       </c>
       <c r="B240">
-        <v>-188.37925223750551</v>
+        <v>-313.62647109459249</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>44039</v>
+      <c r="A241" t="s">
+        <v>241</v>
       </c>
       <c r="B241">
-        <v>-207.16056192372071</v>
+        <v>-289.73852954922228</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
-        <v>44046</v>
+      <c r="A242" t="s">
+        <v>242</v>
       </c>
       <c r="B242">
-        <v>-228.0113253385363</v>
+        <v>-289.25613270375192</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>44053</v>
+      <c r="A243" t="s">
+        <v>243</v>
       </c>
       <c r="B243">
-        <v>-240.5299021404881</v>
+        <v>-313.12889438770839</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>44060</v>
+      <c r="A244" t="s">
+        <v>244</v>
       </c>
       <c r="B244">
-        <v>-390.45056405820071</v>
+        <v>-302.21411830404929</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>44067</v>
+      <c r="A245" t="s">
+        <v>245</v>
       </c>
       <c r="B245">
-        <v>-399.65550034472022</v>
+        <v>-319.84746184521759</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>44074</v>
+      <c r="A246" t="s">
+        <v>246</v>
       </c>
       <c r="B246">
-        <v>-404.60302831456511</v>
+        <v>-315.82311443648638</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>44081</v>
+      <c r="A247" t="s">
+        <v>247</v>
       </c>
       <c r="B247">
-        <v>-401.90727090177228</v>
+        <v>-326.9971571609737</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>44088</v>
+      <c r="A248" t="s">
+        <v>248</v>
       </c>
       <c r="B248">
-        <v>-385.53642797350358</v>
+        <v>-323.60848433453498</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>44095</v>
+      <c r="A249" t="s">
+        <v>249</v>
       </c>
       <c r="B249">
-        <v>-378.77383617118551</v>
+        <v>-320.08867704951712</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>44102</v>
+      <c r="A250" t="s">
+        <v>250</v>
       </c>
       <c r="B250">
-        <v>-399.14481633014731</v>
+        <v>-322.77073028484477</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>44109</v>
+      <c r="A251" t="s">
+        <v>251</v>
       </c>
       <c r="B251">
-        <v>-394.78232610764468</v>
+        <v>-329.18439833673051</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>44116</v>
+      <c r="A252" t="s">
+        <v>252</v>
       </c>
       <c r="B252">
-        <v>-399.33922602126017</v>
+        <v>-314.14856884943902</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>44123</v>
+      <c r="A253" t="s">
+        <v>253</v>
       </c>
       <c r="B253">
-        <v>-392.29778200408361</v>
+        <v>-310.88116772161112</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>44130</v>
+      <c r="A254" t="s">
+        <v>254</v>
       </c>
       <c r="B254">
-        <v>-359.34654283276149</v>
+        <v>-306.89683214094168</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>44137</v>
+      <c r="A255" t="s">
+        <v>255</v>
       </c>
       <c r="B255">
-        <v>-348.46651528323139</v>
+        <v>-300.70241328309902</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>44144</v>
+      <c r="A256" t="s">
+        <v>256</v>
       </c>
       <c r="B256">
-        <v>-349.45847574171103</v>
+        <v>-310.13689872657147</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>44151</v>
+      <c r="A257" t="s">
+        <v>257</v>
       </c>
       <c r="B257">
-        <v>-356.12324498715873</v>
+        <v>-305.19864460987031</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>44158</v>
+      <c r="A258" t="s">
+        <v>258</v>
       </c>
       <c r="B258">
-        <v>-357.91151289025692</v>
+        <v>-294.73052367761198</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>44165</v>
+      <c r="A259" t="s">
+        <v>259</v>
       </c>
       <c r="B259">
-        <v>-349.33296149584493</v>
+        <v>-289.88622395799882</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
-        <v>44172</v>
+      <c r="A260" t="s">
+        <v>260</v>
       </c>
       <c r="B260">
-        <v>-296.24904339200708</v>
+        <v>-263.66485392055421</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <v>44179</v>
+      <c r="A261" t="s">
+        <v>261</v>
       </c>
       <c r="B261">
-        <v>-283.13249563624498</v>
+        <v>-278.15042256488857</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>44186</v>
+      <c r="A262" t="s">
+        <v>262</v>
       </c>
       <c r="B262">
-        <v>-240.2755369971469</v>
+        <v>-145.57677250252581</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>44193</v>
+      <c r="A263" t="s">
+        <v>263</v>
       </c>
       <c r="B263">
-        <v>-206.43088086449791</v>
+        <v>-74.989327373076861</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>44200</v>
+      <c r="A264" t="s">
+        <v>264</v>
       </c>
       <c r="B264">
-        <v>-141.2765824071931</v>
+        <v>-69.249517323544765</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>44207</v>
+      <c r="A265" t="s">
+        <v>265</v>
       </c>
       <c r="B265">
-        <v>-170.06854471733081</v>
+        <v>-70.775925889631978</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>44214</v>
+      <c r="A266" t="s">
+        <v>266</v>
       </c>
       <c r="B266">
-        <v>-186.61720077383751</v>
+        <v>-76.794784988567869</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>44221</v>
+      <c r="A267" t="s">
+        <v>267</v>
       </c>
       <c r="B267">
-        <v>-204.48876407869281</v>
+        <v>-75.041070607072612</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
-        <v>44228</v>
+      <c r="A268" t="s">
+        <v>268</v>
       </c>
       <c r="B268">
-        <v>-200.8976738450379</v>
+        <v>-72.096285984571864</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <v>44235</v>
+      <c r="A269" t="s">
+        <v>269</v>
       </c>
       <c r="B269">
-        <v>-242.9739373029303</v>
+        <v>-84.246076594119373</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>44242</v>
+      <c r="A270" t="s">
+        <v>270</v>
       </c>
       <c r="B270">
-        <v>-167.2705356366896</v>
+        <v>-281.76843618865581</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <v>44249</v>
+      <c r="A271" t="s">
+        <v>271</v>
       </c>
       <c r="B271">
-        <v>-178.5690641190136</v>
+        <v>-270.80762915391688</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <v>44256</v>
+      <c r="A272" t="s">
+        <v>272</v>
       </c>
       <c r="B272">
-        <v>-183.05000743500361</v>
+        <v>-251.3699272889242</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>44263</v>
+      <c r="A273" t="s">
+        <v>273</v>
       </c>
       <c r="B273">
-        <v>-169.90582889663381</v>
+        <v>-270.43304338270548</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>44270</v>
+      <c r="A274" t="s">
+        <v>274</v>
       </c>
       <c r="B274">
-        <v>-178.95521892066461</v>
+        <v>-286.4652931678815</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <v>44277</v>
+      <c r="A275" t="s">
+        <v>275</v>
       </c>
       <c r="B275">
-        <v>-341.1026898486229</v>
+        <v>-312.12605434083622</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>44284</v>
+      <c r="A276" t="s">
+        <v>276</v>
       </c>
       <c r="B276">
-        <v>-370.91749402492769</v>
+        <v>-321.38924736541588</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>44291</v>
+      <c r="A277" t="s">
+        <v>277</v>
       </c>
       <c r="B277">
-        <v>-362.32268542387328</v>
+        <v>-317.76038470611923</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
-        <v>44298</v>
+      <c r="A278" t="s">
+        <v>278</v>
       </c>
       <c r="B278">
-        <v>-382.94655233459292</v>
+        <v>-304.32986019616737</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
-        <v>44305</v>
+      <c r="A279" t="s">
+        <v>279</v>
       </c>
       <c r="B279">
-        <v>-377.54010068236857</v>
+        <v>-309.24487202885678</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
-        <v>44312</v>
+      <c r="A280" t="s">
+        <v>280</v>
       </c>
       <c r="B280">
-        <v>-394.1297311759003</v>
+        <v>-245.15497371316741</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
-        <v>44319</v>
+      <c r="A281" t="s">
+        <v>281</v>
       </c>
       <c r="B281">
-        <v>-403.88344458934608</v>
+        <v>-266.85950051704799</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
-        <v>44326</v>
+      <c r="A282" t="s">
+        <v>282</v>
       </c>
       <c r="B282">
-        <v>-347.17167196150137</v>
+        <v>-249.33528410611609</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
-        <v>44333</v>
+      <c r="A283" t="s">
+        <v>283</v>
       </c>
       <c r="B283">
-        <v>-340.93652372516033</v>
+        <v>-254.7891858763526</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
-        <v>44340</v>
+      <c r="A284" t="s">
+        <v>284</v>
       </c>
       <c r="B284">
-        <v>-348.23210078360307</v>
+        <v>-260.02118250893318</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
-        <v>44347</v>
+      <c r="A285" t="s">
+        <v>285</v>
       </c>
       <c r="B285">
-        <v>-362.20153262621392</v>
+        <v>-277.23751958140139</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
-        <v>44354</v>
+      <c r="A286" t="s">
+        <v>286</v>
       </c>
       <c r="B286">
-        <v>-362.85473366528339</v>
+        <v>-248.03285334565621</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
-        <v>44361</v>
+      <c r="A287" t="s">
+        <v>287</v>
       </c>
       <c r="B287">
-        <v>-360.77010113475069</v>
+        <v>-285.68491353825073</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
-        <v>44368</v>
+      <c r="A288" t="s">
+        <v>288</v>
       </c>
       <c r="B288">
-        <v>-372.60346446706842</v>
+        <v>-261.54380555079803</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
-        <v>44375</v>
+      <c r="A289" t="s">
+        <v>289</v>
       </c>
       <c r="B289">
-        <v>-353.07128242454752</v>
+        <v>-267.65281269542947</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
-        <v>44382</v>
+      <c r="A290" t="s">
+        <v>290</v>
       </c>
       <c r="B290">
-        <v>-377.83188451485819</v>
+        <v>-272.54107138703671</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
-        <v>44389</v>
+      <c r="A291" t="s">
+        <v>291</v>
       </c>
       <c r="B291">
-        <v>-373.6757239554604</v>
+        <v>-270.81575874085422</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>-315.15599435226102</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>-329.29317344790962</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>-325.47890637054451</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>-321.01481465703961</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>-315.2636849655965</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>-306.50383015112197</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>-305.2552343299987</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>-291.94979206900268</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>-292.67249607241621</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>-301.78717384157812</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>-300.95096986070598</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>-291.74392704757491</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>-310.28795390658649</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>-313.78343644365469</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>-276.09880121797249</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>-286.36957201291989</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>-282.7944413693121</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>-287.12875837930937</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>-281.95199039126931</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>-279.5699580165022</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>-278.48135999475261</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>-295.74549559389021</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>-227.62014221624401</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>-110.3989599632133</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>-139.23493716725321</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>-131.94851173772551</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>-136.13266799389399</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>-148.5677982665749</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>-169.55521099550671</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>-179.52977749721501</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>-332.74918989895502</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>-343.46397939595812</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>-329.55947616756129</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>-323.4686675524319</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>-302.98231302258978</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>-301.1133592009204</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>-289.69503053642461</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>-293.48639581010337</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>-302.34031534679519</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>-313.96310435546161</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>-280.92606901224468</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>-302.14200742892223</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>-299.38680341168129</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>-304.65866667701459</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>-306.40811943317732</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>-293.6699842773736</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>-277.19598956280049</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>-273.1206052100855</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>-276.48965794838608</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>-279.95308098503722</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>-286.88398011162133</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>-267.48244840151119</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>-272.73665501060839</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>-304.14029206112929</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>-324.62383727460571</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>-319.90427528625509</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>-328.14757444028288</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>-327.6434784178582</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>-326.77163988448518</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>-326.86827482894432</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>-330.83351172733222</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>-327.95147389690823</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <v>-310.31168926617659</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>-317.9715994874544</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>-315.28908567137489</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357">
+        <v>-329.58405464862022</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358">
+        <v>-330.2770338695239</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359">
+        <v>-331.50465569684587</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360">
+        <v>-329.58753707731012</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361">
+        <v>-336.16230517799818</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362">
+        <v>-320.79871153637089</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363">
+        <v>-318.3710292659444</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364">
+        <v>-334.72359211290501</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365">
+        <v>-313.40365344777592</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366">
+        <v>-306.22869963761019</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367">
+        <v>-153.73971966304629</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368">
+        <v>-143.54426654324249</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369">
+        <v>-124.3854327858084</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370">
+        <v>-128.84455523184869</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371">
+        <v>-124.3321387088441</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372">
+        <v>-126.19573684062991</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373">
+        <v>-115.1486854478768</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374">
+        <v>-268.17688183391738</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375">
+        <v>-285.17599855946929</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376">
+        <v>-288.71695534781787</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377">
+        <v>-296.53621292501811</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378">
+        <v>-298.49323534648931</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379">
+        <v>-289.75990443467663</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380">
+        <v>-300.35002510918372</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381">
+        <v>-335.30464808374307</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382">
+        <v>-311.5910008213412</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383">
+        <v>-293.93688221465919</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384">
+        <v>-285.02623863527231</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385">
+        <v>-278.18080880526469</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386">
+        <v>-278.89454191177271</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387">
+        <v>-297.06725670358998</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388">
+        <v>-294.67661889801491</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389">
+        <v>-332.79839274662407</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390">
+        <v>-331.19505636294832</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391">
+        <v>-338.33438434176003</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392">
+        <v>-345.14521367952091</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393">
+        <v>-331.82567060060791</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394">
+        <v>-342.79748571047759</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395">
+        <v>-341.14941590884678</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396">
+        <v>-341.04072628037898</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397">
+        <v>-331.75122873258641</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398">
+        <v>-343.44359280352171</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399">
+        <v>-326.37672070869348</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400">
+        <v>-337.12800202356323</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401">
+        <v>-342.50970383660672</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402">
+        <v>-342.25799615330681</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403">
+        <v>-333.66772447249292</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404">
+        <v>-333.94008688119271</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405">
+        <v>-330.75360125624201</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406">
+        <v>-352.30631292734569</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407">
+        <v>-347.61547344503123</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408">
+        <v>-355.28426113426798</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409">
+        <v>-350.23998103688541</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410">
+        <v>-319.04470777174811</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411">
+        <v>-253.7827132720758</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412">
+        <v>-258.97921836663488</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413">
+        <v>-264.92870617058833</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414">
+        <v>-271.76199077615689</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415">
+        <v>-284.7705466706206</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416">
+        <v>-297.91996980866992</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417">
+        <v>-293.87205684415989</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418">
+        <v>-333.95294164032703</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419">
+        <v>-141.04332942375251</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420">
+        <v>-151.1050123072165</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421">
+        <v>-159.54598299961259</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422">
+        <v>-148.40385487380661</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423">
+        <v>-151.50758501657609</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424">
+        <v>-133.3131737396431</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425">
+        <v>-128.27040029021299</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426">
+        <v>-270.75392046921752</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427">
+        <v>-276.33555311766128</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428">
+        <v>-267.62296476118559</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429">
+        <v>-268.59905324238252</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430">
+        <v>-264.29920084253388</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431">
+        <v>-308.38683898292618</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432">
+        <v>-312.79457433879941</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433">
+        <v>-330.50902039989688</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434">
+        <v>-342.14295060441498</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435">
+        <v>-344.60191860958849</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436">
+        <v>-293.76532965117337</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437">
+        <v>-266.6674472878338</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438">
+        <v>-240.85300173215359</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439">
+        <v>-226.8886861789718</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440">
+        <v>-229.02759641137831</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441">
+        <v>-230.89725302931021</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442">
+        <v>-235.28742160203711</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443">
+        <v>-277.66819344624048</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444">
+        <v>-301.48865735252588</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445">
+        <v>-280.61499572625911</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446">
+        <v>-278.46948898030138</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447">
+        <v>-283.39461858976898</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448">
+        <v>-276.10951687809631</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449">
+        <v>-294.17060433975752</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450">
+        <v>-275.71331600378772</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451">
+        <v>-260.80234369913592</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452">
+        <v>-258.36098597865441</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453">
+        <v>-273.79436608634592</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454">
+        <v>-273.13928802452671</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455">
+        <v>-297.75385434718862</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456">
+        <v>-302.73108427405691</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457">
+        <v>-321.99340334875052</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458">
+        <v>-299.4615114788507</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459">
+        <v>-273.35870589816898</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460">
+        <v>-279.77979836827558</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461">
+        <v>-276.19792296932701</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462">
+        <v>-283.77747725572522</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463">
+        <v>-286.04312661698651</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464">
+        <v>-296.11985863184748</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465">
+        <v>-293.27499578405218</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466">
+        <v>-311.79678259081737</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467">
+        <v>-318.91039110300432</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468">
+        <v>-321.91011481579721</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469">
+        <v>-302.83769524748419</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470">
+        <v>-306.27061641621481</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471">
+        <v>-181.0818926718562</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472">
+        <v>-168.2518824232404</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473">
+        <v>-181.34123155050591</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474">
+        <v>-155.54058244060451</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475">
+        <v>-142.06651873498191</v>
       </c>
     </row>
   </sheetData>
